--- a/HybridMavenProject/src/test/resources/TestData/TestData.xlsx
+++ b/HybridMavenProject/src/test/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="19008" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18696" windowHeight="6204"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -114,13 +114,7 @@
     <t>1990</t>
   </si>
   <si>
-    <t>PARTIALLINKTEXT</t>
-  </si>
-  <si>
     <t>LINKCOUNTING</t>
-  </si>
-  <si>
-    <t>QUIT</t>
   </si>
   <si>
     <t>Google</t>
@@ -509,7 +503,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,10 +729,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -746,7 +740,7 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -756,7 +750,7 @@
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
